--- a/Data/Summary/BalanceSheet.xlsx
+++ b/Data/Summary/BalanceSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b021fb3000abb44/Masters/Courses/DLH/Project/Gupta_Experiment/Ashutosh_Reproduction/Data/Summary/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b021fb3000abb44/GitHub/CovidPred_Repro/Data/Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_0D08AD5F8FC1C5D782B0398E012AC6FEBAD2FE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{021E835E-5E94-4EA1-9D79-702281E9E4F1}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="11_0D08AD5F8FC1C5D782B0398E012AC6FEBAD2FE12" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71879833-45CD-4639-AB4C-0179F8A8E6F3}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="30555" yWindow="4125" windowWidth="21600" windowHeight="11385" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-210" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S1" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Table S8" sheetId="8" r:id="rId8"/>
     <sheet name="Table S9" sheetId="9" r:id="rId9"/>
     <sheet name="Ashutosh" sheetId="10" r:id="rId10"/>
+    <sheet name="Data distribution" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="138">
   <si>
     <r>
       <rPr>
@@ -657,12 +658,33 @@
 We do not have knowledge about which are those 75 images out of 136 available images now.
 Therefore external validation results may vary.</t>
   </si>
+  <si>
+    <t>Original dataset</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Combined dataset</t>
+  </si>
+  <si>
+    <t>Each augmented dataset (25)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Selected after filtering</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -732,8 +754,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -770,8 +799,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1081,12 +1128,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1266,6 +1376,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1284,6 +1395,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1296,7 +1410,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1308,15 +1428,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1350,7 +1461,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1776,18 +1967,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1915,8 +2106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E54AFA-57E5-4A47-9850-A7E4512A2BE5}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,28 +2126,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="51"/>
-      <c r="D3" s="85" t="s">
+      <c r="D3" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="88" t="s">
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="89" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="89"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
@@ -2000,20 +2191,20 @@
       <c r="C5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="82">
+      <c r="D5" s="83">
         <v>143</v>
       </c>
-      <c r="E5" s="90"/>
+      <c r="E5" s="91"/>
       <c r="F5" s="49">
         <v>120</v>
       </c>
-      <c r="G5" s="90" t="s">
+      <c r="G5" s="91" t="s">
         <v>128</v>
       </c>
       <c r="H5" s="58">
         <v>51</v>
       </c>
-      <c r="I5" s="82">
+      <c r="I5" s="83">
         <v>930</v>
       </c>
       <c r="J5" s="58">
@@ -2030,16 +2221,16 @@
       <c r="C6" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="83"/>
-      <c r="E6" s="91"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="49">
         <v>23</v>
       </c>
-      <c r="G6" s="92"/>
+      <c r="G6" s="93"/>
       <c r="H6" s="58">
         <v>21</v>
       </c>
-      <c r="I6" s="83"/>
+      <c r="I6" s="84"/>
       <c r="J6" s="58">
         <v>37</v>
       </c>
@@ -2063,7 +2254,7 @@
       <c r="F7" s="49">
         <v>322</v>
       </c>
-      <c r="G7" s="92"/>
+      <c r="G7" s="93"/>
       <c r="H7" s="58">
         <v>160</v>
       </c>
@@ -2084,18 +2275,18 @@
       <c r="C8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="82">
+      <c r="D8" s="83">
         <v>138</v>
       </c>
-      <c r="E8" s="90"/>
+      <c r="E8" s="91"/>
       <c r="F8" s="49">
         <v>58</v>
       </c>
-      <c r="G8" s="92"/>
+      <c r="G8" s="93"/>
       <c r="H8" s="58">
         <v>54</v>
       </c>
-      <c r="I8" s="82">
+      <c r="I8" s="83">
         <v>139</v>
       </c>
       <c r="J8" s="58">
@@ -2109,19 +2300,19 @@
       <c r="B9" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="83"/>
-      <c r="E9" s="91"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="92"/>
       <c r="F9" s="49">
         <v>80</v>
       </c>
-      <c r="G9" s="91"/>
+      <c r="G9" s="92"/>
       <c r="H9" s="58">
         <v>66</v>
       </c>
-      <c r="I9" s="83"/>
+      <c r="I9" s="84"/>
       <c r="J9" s="58">
         <v>66</v>
       </c>
@@ -2187,6 +2378,285 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCCD04C6-AD35-4A22-B4D6-DC8264D29D02}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" style="48" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="102" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="114" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="117"/>
+      <c r="H1" s="118" t="s">
+        <v>134</v>
+      </c>
+      <c r="I1" s="119"/>
+    </row>
+    <row r="2" spans="1:9" s="102" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" s="113" t="s">
+        <v>133</v>
+      </c>
+      <c r="H2" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" s="113" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="95">
+        <v>930</v>
+      </c>
+      <c r="C3" s="98">
+        <v>136</v>
+      </c>
+      <c r="D3" s="99">
+        <v>123</v>
+      </c>
+      <c r="E3" s="100">
+        <v>13</v>
+      </c>
+      <c r="F3" s="99">
+        <v>123</v>
+      </c>
+      <c r="G3" s="100">
+        <v>13</v>
+      </c>
+      <c r="H3" s="99">
+        <f>F3*26</f>
+        <v>3198</v>
+      </c>
+      <c r="I3" s="101">
+        <f>G3*26</f>
+        <v>338</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="95"/>
+      <c r="C4" s="98">
+        <v>37</v>
+      </c>
+      <c r="D4" s="99">
+        <v>34</v>
+      </c>
+      <c r="E4" s="100">
+        <v>3</v>
+      </c>
+      <c r="F4" s="99">
+        <v>34</v>
+      </c>
+      <c r="G4" s="100">
+        <v>3</v>
+      </c>
+      <c r="H4" s="99">
+        <f t="shared" ref="H4:H7" si="0">F4*26</f>
+        <v>884</v>
+      </c>
+      <c r="I4" s="101">
+        <f t="shared" ref="I4:I7" si="1">G4*26</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="49">
+        <v>112120</v>
+      </c>
+      <c r="C5" s="98">
+        <v>160</v>
+      </c>
+      <c r="D5" s="99">
+        <v>144</v>
+      </c>
+      <c r="E5" s="100">
+        <v>16</v>
+      </c>
+      <c r="F5" s="99">
+        <v>144</v>
+      </c>
+      <c r="G5" s="100">
+        <v>16</v>
+      </c>
+      <c r="H5" s="99">
+        <f t="shared" si="0"/>
+        <v>3744</v>
+      </c>
+      <c r="I5" s="101">
+        <f t="shared" si="1"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="95">
+        <v>139</v>
+      </c>
+      <c r="C6" s="98">
+        <v>54</v>
+      </c>
+      <c r="D6" s="99">
+        <v>49</v>
+      </c>
+      <c r="E6" s="100">
+        <v>5</v>
+      </c>
+      <c r="F6" s="99">
+        <v>49</v>
+      </c>
+      <c r="G6" s="100">
+        <v>5</v>
+      </c>
+      <c r="H6" s="99">
+        <f t="shared" si="0"/>
+        <v>1274</v>
+      </c>
+      <c r="I6" s="101">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="91"/>
+      <c r="C7" s="105">
+        <v>66</v>
+      </c>
+      <c r="D7" s="106">
+        <v>60</v>
+      </c>
+      <c r="E7" s="107">
+        <v>6</v>
+      </c>
+      <c r="F7" s="106">
+        <v>60</v>
+      </c>
+      <c r="G7" s="107">
+        <v>6</v>
+      </c>
+      <c r="H7" s="106">
+        <f t="shared" si="0"/>
+        <v>1560</v>
+      </c>
+      <c r="I7" s="108">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="110">
+        <f>SUM(B3:B7)</f>
+        <v>113189</v>
+      </c>
+      <c r="C8" s="111">
+        <f>SUM(C3:C7)</f>
+        <v>453</v>
+      </c>
+      <c r="D8" s="120">
+        <f>SUM(D3:D7)</f>
+        <v>410</v>
+      </c>
+      <c r="E8" s="121">
+        <f>SUM(E3:E7)</f>
+        <v>43</v>
+      </c>
+      <c r="F8" s="120">
+        <f>SUM(F3:F7)</f>
+        <v>410</v>
+      </c>
+      <c r="G8" s="121">
+        <f>SUM(G3:G7)</f>
+        <v>43</v>
+      </c>
+      <c r="H8" s="120">
+        <f>SUM(H3:H7)</f>
+        <v>10660</v>
+      </c>
+      <c r="I8" s="121">
+        <f>SUM(I3:I7)</f>
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="122">
+        <v>453</v>
+      </c>
+      <c r="E9" s="123"/>
+      <c r="F9" s="122">
+        <v>453</v>
+      </c>
+      <c r="G9" s="123"/>
+      <c r="H9" s="124">
+        <v>11778</v>
+      </c>
+      <c r="I9" s="123"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I19"/>
@@ -2206,24 +2676,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="2">
         <v>120</v>
       </c>
@@ -2235,12 +2705,12 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -2364,18 +2834,18 @@
       </c>
     </row>
     <row r="18" spans="3:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="67" t="s">
         <v>117</v>
       </c>
-      <c r="D18" s="67">
+      <c r="D18" s="68">
         <v>75</v>
       </c>
     </row>
     <row r="19" spans="3:4" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="67"/>
+      <c r="D19" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2409,24 +2879,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="2">
         <v>23</v>
       </c>
@@ -2438,12 +2908,12 @@
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -2586,35 +3056,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="E2" s="2">
         <v>112121</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="2">
         <v>322</v>
       </c>
@@ -2627,12 +3097,12 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -2728,33 +3198,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="2">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2765,12 +3235,12 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -2852,33 +3322,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
       <c r="D2" s="2">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
+      <c r="A3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2889,12 +3359,12 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -2985,36 +3455,36 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
-      <c r="I4" s="69" t="s">
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
       <c r="O4" s="12" t="s">
         <v>112</v>
       </c>
@@ -4385,42 +4855,42 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
       <c r="H3" s="25"/>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:12" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="73" t="s">
+      <c r="C4" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74" t="s">
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
       <c r="L4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="72"/>
+      <c r="A5" s="74"/>
       <c r="B5" s="28" t="s">
         <v>89</v>
       </c>
@@ -4488,34 +4958,34 @@
       </c>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="70">
+      <c r="A7" s="71">
         <v>2</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="70">
-        <v>100</v>
-      </c>
-      <c r="D7" s="70">
+      <c r="C7" s="71">
+        <v>100</v>
+      </c>
+      <c r="D7" s="71">
         <v>75</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="71">
         <v>0.72</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="71">
         <v>42.86</v>
       </c>
-      <c r="G7" s="70">
+      <c r="G7" s="71">
         <v>60</v>
       </c>
       <c r="H7" s="30">
         <v>32</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="71">
         <v>50</v>
       </c>
-      <c r="J7" s="70">
+      <c r="J7" s="71">
         <v>93.75</v>
       </c>
       <c r="K7" s="30">
@@ -4523,47 +4993,47 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="70"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
       <c r="H8" s="30"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
       <c r="K8" s="30"/>
     </row>
     <row r="9" spans="1:12" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="70">
+      <c r="A9" s="71">
         <v>3</v>
       </c>
-      <c r="B9" s="75" t="s">
+      <c r="B9" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="70">
-        <v>100</v>
-      </c>
-      <c r="D9" s="70">
+      <c r="C9" s="71">
+        <v>100</v>
+      </c>
+      <c r="D9" s="71">
         <v>75</v>
       </c>
-      <c r="E9" s="70">
+      <c r="E9" s="71">
         <v>1.6519999999999999</v>
       </c>
-      <c r="F9" s="70">
+      <c r="F9" s="71">
         <v>57.14</v>
       </c>
-      <c r="G9" s="70">
+      <c r="G9" s="71">
         <v>20</v>
       </c>
       <c r="H9" s="30">
         <v>20</v>
       </c>
-      <c r="I9" s="70">
+      <c r="I9" s="71">
         <v>0</v>
       </c>
-      <c r="J9" s="70">
+      <c r="J9" s="71">
         <v>100</v>
       </c>
       <c r="K9" s="30">
@@ -4571,16 +5041,16 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="30"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
       <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4899,34 +5369,34 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="70">
+      <c r="A20" s="71">
         <v>13</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="72" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="70">
-        <v>100</v>
-      </c>
-      <c r="D20" s="70">
+      <c r="C20" s="71">
+        <v>100</v>
+      </c>
+      <c r="D20" s="71">
         <v>56</v>
       </c>
-      <c r="E20" s="70">
+      <c r="E20" s="71">
         <v>2.69</v>
       </c>
-      <c r="F20" s="70">
+      <c r="F20" s="71">
         <v>42.86</v>
       </c>
-      <c r="G20" s="70">
+      <c r="G20" s="71">
         <v>60</v>
       </c>
       <c r="H20" s="30">
         <v>32</v>
       </c>
-      <c r="I20" s="70">
-        <v>100</v>
-      </c>
-      <c r="J20" s="70">
+      <c r="I20" s="71">
+        <v>100</v>
+      </c>
+      <c r="J20" s="71">
         <v>87.5</v>
       </c>
       <c r="K20" s="30">
@@ -4934,16 +5404,16 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="75"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
       <c r="H21" s="30"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="71"/>
       <c r="K21" s="30"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5403,6 +5873,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="A20:A21"/>
@@ -5419,21 +5904,6 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5458,59 +5928,59 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
+      <c r="A3" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="80"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
     </row>
     <row r="4" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="82" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="82" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78" t="s">
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78" t="s">
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82" t="s">
         <v>105</v>
       </c>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
+      <c r="R4" s="82"/>
+      <c r="S4" s="82"/>
+      <c r="T4" s="82"/>
     </row>
     <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="36" t="s">
         <v>106</v>
       </c>
@@ -5629,172 +6099,172 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79">
+      <c r="A7" s="77">
         <v>2</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="79">
+      <c r="C7" s="77">
         <v>85.71</v>
       </c>
-      <c r="D7" s="79">
+      <c r="D7" s="77">
         <v>40</v>
       </c>
       <c r="E7" s="37">
         <v>30.67</v>
       </c>
-      <c r="F7" s="79">
+      <c r="F7" s="77">
         <v>50</v>
       </c>
-      <c r="G7" s="79">
-        <v>100</v>
-      </c>
-      <c r="H7" s="79">
-        <v>80</v>
-      </c>
-      <c r="I7" s="79">
+      <c r="G7" s="77">
+        <v>100</v>
+      </c>
+      <c r="H7" s="77">
+        <v>80</v>
+      </c>
+      <c r="I7" s="77">
         <v>71.430000000000007</v>
       </c>
-      <c r="J7" s="79">
+      <c r="J7" s="77">
         <v>60</v>
       </c>
       <c r="K7" s="37">
         <v>38.67</v>
       </c>
-      <c r="L7" s="79">
+      <c r="L7" s="77">
         <v>50</v>
       </c>
-      <c r="M7" s="79">
-        <v>100</v>
-      </c>
-      <c r="N7" s="79">
-        <v>80</v>
-      </c>
-      <c r="O7" s="79">
+      <c r="M7" s="77">
+        <v>100</v>
+      </c>
+      <c r="N7" s="77">
+        <v>80</v>
+      </c>
+      <c r="O7" s="77">
         <v>85.71</v>
       </c>
-      <c r="P7" s="79">
+      <c r="P7" s="77">
         <v>80</v>
       </c>
       <c r="Q7" s="37">
         <v>48</v>
       </c>
-      <c r="R7" s="79">
+      <c r="R7" s="77">
         <v>50</v>
       </c>
-      <c r="S7" s="79">
+      <c r="S7" s="77">
         <v>93.75</v>
       </c>
-      <c r="T7" s="79">
+      <c r="T7" s="77">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
       <c r="E8" s="37"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
       <c r="K8" s="37"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
       <c r="Q8" s="37"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
     </row>
     <row r="9" spans="1:20" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79">
+      <c r="A9" s="77">
         <v>3</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="79">
+      <c r="C9" s="77">
         <v>57.14</v>
       </c>
-      <c r="D9" s="79">
+      <c r="D9" s="77">
         <v>40</v>
       </c>
       <c r="E9" s="37">
         <v>42.67</v>
       </c>
-      <c r="F9" s="79">
+      <c r="F9" s="77">
         <v>50</v>
       </c>
-      <c r="G9" s="79">
+      <c r="G9" s="77">
         <v>93.75</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="77">
         <v>60</v>
       </c>
-      <c r="I9" s="79">
+      <c r="I9" s="77">
         <v>85.71</v>
       </c>
-      <c r="J9" s="79">
+      <c r="J9" s="77">
         <v>60</v>
       </c>
       <c r="K9" s="37">
         <v>34.67</v>
       </c>
-      <c r="L9" s="79">
+      <c r="L9" s="77">
         <v>50</v>
       </c>
-      <c r="M9" s="79">
+      <c r="M9" s="77">
         <v>93.75</v>
       </c>
-      <c r="N9" s="79">
+      <c r="N9" s="77">
         <v>60</v>
       </c>
-      <c r="O9" s="79">
+      <c r="O9" s="77">
         <v>71.430000000000007</v>
       </c>
-      <c r="P9" s="79">
+      <c r="P9" s="77">
         <v>40</v>
       </c>
       <c r="Q9" s="37">
         <v>56</v>
       </c>
-      <c r="R9" s="79">
+      <c r="R9" s="77">
         <v>50</v>
       </c>
-      <c r="S9" s="79">
+      <c r="S9" s="77">
         <v>93.75</v>
       </c>
-      <c r="T9" s="79">
+      <c r="T9" s="77">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="79"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="37"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
       <c r="K10" s="37"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="79"/>
-      <c r="P10" s="79"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
       <c r="Q10" s="37"/>
-      <c r="R10" s="79"/>
-      <c r="S10" s="79"/>
-      <c r="T10" s="79"/>
+      <c r="R10" s="77"/>
+      <c r="S10" s="77"/>
+      <c r="T10" s="77"/>
     </row>
     <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="37">
@@ -7223,25 +7693,50 @@
       </c>
     </row>
     <row r="34" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="81"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="81"/>
-      <c r="J34" s="81"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="81"/>
-      <c r="O34" s="81"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="78"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="78"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="78"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="78"/>
+      <c r="O34" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:N4"/>
+    <mergeCell ref="O4:T4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="R9:R10"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="T9:T10"/>
@@ -7258,31 +7753,6 @@
     <mergeCell ref="O9:O10"/>
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:N4"/>
-    <mergeCell ref="O4:T4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
